--- a/TC-ĐATN (1).xlsx
+++ b/TC-ĐATN (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ĐĂNG KÝ" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,7 @@
     <sheet name="TÌM KIẾM" sheetId="4" r:id="rId4"/>
     <sheet name="ĐẶT HÀNG" sheetId="5" r:id="rId5"/>
     <sheet name="HIỆU NĂNG" sheetId="6" r:id="rId6"/>
-    <sheet name="Luồng nghiệp vụ đặt hàng" sheetId="8" r:id="rId7"/>
-    <sheet name="TEST REPORT" sheetId="7" r:id="rId8"/>
+    <sheet name="TEST REPORT" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="332">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -236,45 +235,9 @@
     <t>HIỆU NĂNG</t>
   </si>
   <si>
-    <t>load-1</t>
-  </si>
-  <si>
-    <t>load-2</t>
-  </si>
-  <si>
-    <t>100 người cùng truy cập trang chủ cùng một lúc</t>
-  </si>
-  <si>
-    <t>200 người cùng truy cập trang chủ cùng một lúc</t>
-  </si>
-  <si>
-    <t>1. Thời gian phản hồi là 5s</t>
-  </si>
-  <si>
     <t>1. Thời gian phản hồi là 20s</t>
   </si>
   <si>
-    <t>500 người cùng truy cập trang chủ cùng một lúc</t>
-  </si>
-  <si>
-    <t>load-3</t>
-  </si>
-  <si>
-    <t>Stress-4</t>
-  </si>
-  <si>
-    <t>1. tỉ lệ lỗi nhỏ hơn 10%</t>
-  </si>
-  <si>
-    <t>PFM-5</t>
-  </si>
-  <si>
-    <t>performance</t>
-  </si>
-  <si>
-    <t>1. Cho 10 người cùng truy cập trang, 5 giây sau 20 người nữa truy cập trang, 5 giây sau 50 người nữa truy cập</t>
-  </si>
-  <si>
     <t>Kiểm tra giá trị trường trường email</t>
   </si>
   <si>
@@ -324,21 +287,6 @@
   </si>
   <si>
     <t>DH-23</t>
-  </si>
-  <si>
-    <t>1. Chạy kịch bản test với 200 người dùng cùng truy cập website: vascara.com</t>
-  </si>
-  <si>
-    <t>1. Chạy kịch bản test với 100 người dùng cùng truy cập website: vascara.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Chạy kịch bản test với 500 người dùng cùng truy cập website: vascara.com </t>
-  </si>
-  <si>
-    <t>1. Chạy kịch bản test với 500 người dùng cùng truy cập website: vascara.com trong 1 phút</t>
-  </si>
-  <si>
-    <t>Đăng nhập thành công</t>
   </si>
   <si>
     <t>Đặt hàng khi chưa đăng nhập</t>
@@ -1050,131 +998,6 @@
     <t>DH-24</t>
   </si>
   <si>
-    <t>Luồng nghiệp vụ đặt hàng</t>
-  </si>
-  <si>
-    <t>Check xử lý của hệ thống khi ĐẶT HÀNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Tìm kiếm sản phẩm
-2. Chọn sản phẩm
-3. Click mua hàng
-4. Click giỏ hàng
-5a. Cập nhật 
-5c. Click thanh toán
-6a. Đăng nhập 
-7. Nhập thông tin còn thiếu 
-9. Click ĐẶT HÀNG
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Tìm kiếm sản phẩm
-2. Chọn sản phẩm
-3. Click mua hàng
-4. Click giỏ hàng
-5a. Cập nhật 
-5c. Click thanh toán
-6b. Không đăng nhập 
-7. Nhập thông tin còn thiếu 
-8. Nhập mã giảm giá 
-9. Click ĐẶT HÀNG
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Tìm kiếm sản phẩm
-2. Chọn sản phẩm
-3. Click mua hàng
-4. Click giỏ hàng
-5b. Click Tiếp tục mua
-2. Chọn sản phẩm
-3. Click mua hàng
-4. Click giỏ hàng
-5a. Cập nhật 
-5c. Click thanh toán
-6a. Đăng nhập 
-7. Nhập thông tin còn thiếu 
-9. Click ĐẶT HÀNG
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Tìm kiếm sản phẩm
-2. Chọn sản phẩm
-3. Click mua hàng
-4. Click giỏ hàng
-5b. Click Tiếp tục mua
-2. Chọn sản phẩm
-3. Click mua hàng
-4. Click giỏ hàng
-5a. Cập nhật 
-5c. Click thanh toán
-6a. Đăng nhập 
-7. Nhập thông tin còn thiếu 
-8. Nhập mã giảm giá
-9. Click ĐẶT HÀNG
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Tìm kiếm sản phẩm
-2. Chọn sản phẩm
-3. Click mua hàng
-4. Click giỏ hàng
-5a. Cập nhật 
-5c. Click thanh toán
-6a. Đăng nhập 
-7. Nhập thông tin còn thiếu 
-8. Nhập mã giảm giá
-9. Click ĐẶT HÀNG
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Tìm kiếm sản phẩm
-2. Chọn sản phẩm
-3. Click mua hàng
-4. Click giỏ hàng
-5a. Cập nhật 
-5c. Click thanh toán
-6b. Không đăng nhập 
-7. Nhập thông tin còn thiếu 
-9. Click ĐẶT HÀNG
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Tìm kiếm sản phẩm
-2. Chọn sản phẩm
-3. Click mua hàng
-4. Click giỏ hàng
-5b. Click Tiếp tục mua
-2. Chọn sản phẩm
-3. Click mua hàng
-4. Click giỏ hàng
-5a. Cập nhật 
-5c. Click thanh toán
-6b. Không đăng nhập 
-7. Nhập thông tin còn thiếu 
-9. Click ĐẶT HÀNG
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Tìm kiếm sản phẩm
-2. Chọn sản phẩm
-3. Click mua hàng
-4. Click giỏ hàng
-5b. Click Tiếp tục mua
-2. Chọn sản phẩm
-3. Click mua hàng
-4. Click giỏ hàng
-5a. Cập nhật 
-5c. Click thanh toán
-6b. Không đăng nhập 
-7. Nhập thông tin còn thiếu 
-8. Nhập mã giảm giá
-9. Click ĐẶT HÀNG
-</t>
-  </si>
-  <si>
-    <t>Như mong muốn</t>
-  </si>
-  <si>
     <t>2.Không nhập được, hệ thống chỉ cho phép nhập số</t>
   </si>
   <si>
@@ -1212,6 +1035,134 @@
   </si>
   <si>
     <t>Ngô Thanh Huyền</t>
+  </si>
+  <si>
+    <t>1. Chạy kịch bản test với 10 người dùng cùng truy cập đăng nhập</t>
+  </si>
+  <si>
+    <t>1. Chạy kịch bản test với 10 người dùng cùng truy cập đăng ký</t>
+  </si>
+  <si>
+    <t>1. Thời gian phản hồi là 3s</t>
+  </si>
+  <si>
+    <t>1. Thời gian phản hồi là 4s</t>
+  </si>
+  <si>
+    <t>1. Chạy kịch bản test với 100 người dùng cùng truy cập đăng nhập</t>
+  </si>
+  <si>
+    <t>1. Chạy kịch bản test với 500 người dùng cùng truy cập đăng nhập</t>
+  </si>
+  <si>
+    <t>1. Chạy kịch bản test với 100 người dùng cùng truy cập đăng ký</t>
+  </si>
+  <si>
+    <t>1. Chạy kịch bản test với 500 người dùng cùng truy cập đăng ký</t>
+  </si>
+  <si>
+    <t>1. Thời gian phản hồi là 1s</t>
+  </si>
+  <si>
+    <t>1. Thời gian phản hồi là 2s</t>
+  </si>
+  <si>
+    <t>1. Thời gian phản hồi là 21s</t>
+  </si>
+  <si>
+    <t>1. Chạy kịch bản test với 10 người dùng cùng truy cập giỏ hàng</t>
+  </si>
+  <si>
+    <t>1. Chạy kịch bản test với 100 người dùng cùng truy giỏ hàng</t>
+  </si>
+  <si>
+    <t>1. Chạy kịch bản test với 500 người dùng cùng truy giỏ hàng</t>
+  </si>
+  <si>
+    <t>1. Chạy kịch bản test với 10 người dùng cùng truy cập đặt hàng</t>
+  </si>
+  <si>
+    <t>1. Chạy kịch bản test với 100 người dùng cùng truy đặt hàng</t>
+  </si>
+  <si>
+    <t>1. Chạy kịch bản test với 500 người dùng cùng truy đặt hàng</t>
+  </si>
+  <si>
+    <t>1. Thời gian phản hồi là 22s</t>
+  </si>
+  <si>
+    <t>1. Chạy kịch bản test với 10 người truy cập 1s sau 20 người truy cập 3s sau 50 người truy cập ( cùng trang web)</t>
+  </si>
+  <si>
+    <t>1. Chạy kịch bản test với 10 người truy cập trang đăng nhập 1s sau 20 người truy cập trang chủ 3s sau 50 người truy cập giò hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Chạy kịch bản test với 10 ng truy cập đồng thời các trang web(đăng nhập, đăng ký, giỏ hàng, trang chủ)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Chạy kịch bản test với 1000 ng truy cập trang chủ trong 1s</t>
+  </si>
+  <si>
+    <t>Performance test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load test
+</t>
+  </si>
+  <si>
+    <t>Stress test</t>
+  </si>
+  <si>
+    <t>HN-1</t>
+  </si>
+  <si>
+    <t>HN-2</t>
+  </si>
+  <si>
+    <t>HN-3</t>
+  </si>
+  <si>
+    <t>HN-4</t>
+  </si>
+  <si>
+    <t>HN-5</t>
+  </si>
+  <si>
+    <t>HN-6</t>
+  </si>
+  <si>
+    <t>HN-7</t>
+  </si>
+  <si>
+    <t>HN-8</t>
+  </si>
+  <si>
+    <t>HN-9</t>
+  </si>
+  <si>
+    <t>HN-10</t>
+  </si>
+  <si>
+    <t>HN-11</t>
+  </si>
+  <si>
+    <t>HN-12</t>
+  </si>
+  <si>
+    <t>HN-13</t>
+  </si>
+  <si>
+    <t>HN-14</t>
+  </si>
+  <si>
+    <t>HN-15</t>
+  </si>
+  <si>
+    <t>HN-16</t>
+  </si>
+  <si>
+    <t>TC Hiệu Năng</t>
   </si>
 </sst>
 </file>
@@ -1888,7 +1839,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2353,147 +2304,6 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2507,6 +2317,33 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2570,32 +2407,53 @@
     <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="20" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2603,20 +2461,8 @@
     <xf numFmtId="0" fontId="25" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="20" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2914,8 +2760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -2936,10 +2782,10 @@
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="223"/>
-      <c r="C1" s="223"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="223"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
       <c r="F1" s="62"/>
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
@@ -2958,10 +2804,10 @@
     </row>
     <row r="2" spans="1:21" ht="14.4" thickBot="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="223"/>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
       <c r="F2" s="78"/>
       <c r="G2" s="77"/>
       <c r="H2" s="77"/>
@@ -2982,12 +2828,12 @@
       <c r="A3" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="224" t="s">
-        <v>240</v>
-      </c>
-      <c r="C3" s="224"/>
-      <c r="D3" s="224"/>
-      <c r="E3" s="224"/>
+      <c r="B3" s="186" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
       <c r="F3" s="65"/>
       <c r="G3" s="66"/>
       <c r="H3" s="67"/>
@@ -3008,10 +2854,10 @@
       <c r="A4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="224"/>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="224"/>
+      <c r="B4" s="186"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="186"/>
       <c r="F4" s="65"/>
       <c r="G4" s="66"/>
       <c r="H4" s="67"/>
@@ -3034,12 +2880,12 @@
       <c r="A5" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="230" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="230"/>
-      <c r="D5" s="230"/>
-      <c r="E5" s="230"/>
+      <c r="B5" s="192" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="192"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="192"/>
       <c r="F5" s="70"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -3154,34 +3000,34 @@
       <c r="T8" s="48"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="225" t="s">
+      <c r="A9" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="225" t="s">
+      <c r="B9" s="187" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="226" t="s">
+      <c r="C9" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="225" t="s">
+      <c r="D9" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="228" t="s">
+      <c r="E9" s="190" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="231" t="s">
+      <c r="F9" s="193" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="226" t="s">
+      <c r="G9" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="226" t="s">
+      <c r="H9" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="226" t="s">
+      <c r="I9" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="225" t="s">
+      <c r="J9" s="187" t="s">
         <v>20</v>
       </c>
       <c r="K9" s="49"/>
@@ -3197,16 +3043,16 @@
       <c r="U9" s="50"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="225"/>
-      <c r="B10" s="225"/>
-      <c r="C10" s="227"/>
-      <c r="D10" s="225"/>
-      <c r="E10" s="229"/>
-      <c r="F10" s="232"/>
-      <c r="G10" s="227"/>
-      <c r="H10" s="227"/>
-      <c r="I10" s="227"/>
-      <c r="J10" s="225"/>
+      <c r="A10" s="187"/>
+      <c r="B10" s="187"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="191"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="189"/>
+      <c r="J10" s="187"/>
       <c r="K10" s="51"/>
       <c r="L10" s="52"/>
       <c r="M10" s="52"/>
@@ -3230,8 +3076,8 @@
       <c r="F11" s="167"/>
       <c r="G11" s="167"/>
       <c r="H11" s="167"/>
-      <c r="I11" s="221"/>
-      <c r="J11" s="222"/>
+      <c r="I11" s="183"/>
+      <c r="J11" s="184"/>
       <c r="K11" s="53"/>
       <c r="L11" s="53"/>
       <c r="M11" s="53"/>
@@ -3245,17 +3091,17 @@
     </row>
     <row r="12" spans="1:21" ht="50.4">
       <c r="A12" s="101" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C12" s="54"/>
       <c r="D12" s="24" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E12" s="151" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="F12" s="88" t="s">
         <v>6</v>
@@ -3263,9 +3109,7 @@
       <c r="G12" s="25"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="24" t="s">
-        <v>91</v>
-      </c>
+      <c r="J12" s="24"/>
       <c r="K12" s="53"/>
       <c r="L12" s="53"/>
       <c r="M12" s="53"/>
@@ -3279,15 +3123,15 @@
     </row>
     <row r="13" spans="1:21" ht="50.4">
       <c r="A13" s="101" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B13" s="54"/>
       <c r="C13" s="54"/>
       <c r="D13" s="24" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E13" s="151" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="F13" s="88" t="s">
         <v>6</v>
@@ -3295,9 +3139,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="24" t="s">
-        <v>91</v>
-      </c>
+      <c r="J13" s="24"/>
       <c r="K13" s="53"/>
       <c r="L13" s="53"/>
       <c r="M13" s="53"/>
@@ -3311,15 +3153,15 @@
     </row>
     <row r="14" spans="1:21" ht="50.4">
       <c r="A14" s="101" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E14" s="151" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="F14" s="88" t="s">
         <v>6</v>
@@ -3327,9 +3169,7 @@
       <c r="G14" s="25"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
-      <c r="J14" s="24" t="s">
-        <v>91</v>
-      </c>
+      <c r="J14" s="24"/>
       <c r="K14" s="53"/>
       <c r="L14" s="53"/>
       <c r="M14" s="53"/>
@@ -3343,15 +3183,15 @@
     </row>
     <row r="15" spans="1:21" ht="50.4">
       <c r="A15" s="101" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
       <c r="D15" s="24" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="E15" s="154" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="F15" s="89" t="s">
         <v>6</v>
@@ -3359,9 +3199,7 @@
       <c r="G15" s="58"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
-      <c r="J15" s="24" t="s">
-        <v>91</v>
-      </c>
+      <c r="J15" s="24"/>
       <c r="K15" s="53"/>
       <c r="L15" s="53"/>
       <c r="M15" s="53"/>
@@ -3375,17 +3213,17 @@
     </row>
     <row r="16" spans="1:21" ht="50.4">
       <c r="A16" s="101" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C16" s="54"/>
       <c r="D16" s="24" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E16" s="151" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="F16" s="88" t="s">
         <v>4</v>
@@ -3393,9 +3231,7 @@
       <c r="G16" s="25"/>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="24" t="s">
-        <v>91</v>
-      </c>
+      <c r="J16" s="24"/>
       <c r="K16" s="53"/>
       <c r="L16" s="53"/>
       <c r="M16" s="53"/>
@@ -3409,15 +3245,15 @@
     </row>
     <row r="17" spans="1:20" ht="50.4">
       <c r="A17" s="101" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="B17" s="54"/>
       <c r="C17" s="54"/>
       <c r="D17" s="24" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E17" s="151" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="F17" s="88" t="s">
         <v>6</v>
@@ -3425,9 +3261,7 @@
       <c r="G17" s="25"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
-      <c r="J17" s="24" t="s">
-        <v>91</v>
-      </c>
+      <c r="J17" s="24"/>
       <c r="K17" s="53"/>
       <c r="L17" s="53"/>
       <c r="M17" s="53"/>
@@ -3441,15 +3275,15 @@
     </row>
     <row r="18" spans="1:20" ht="50.4">
       <c r="A18" s="101" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
       <c r="D18" s="24" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E18" s="151" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="F18" s="88" t="s">
         <v>6</v>
@@ -3457,9 +3291,7 @@
       <c r="G18" s="25"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="24" t="s">
-        <v>91</v>
-      </c>
+      <c r="J18" s="24"/>
       <c r="K18" s="53"/>
       <c r="L18" s="53"/>
       <c r="M18" s="53"/>
@@ -3473,15 +3305,15 @@
     </row>
     <row r="19" spans="1:20" ht="50.4">
       <c r="A19" s="101" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
       <c r="D19" s="24" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="E19" s="151" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="F19" s="89" t="s">
         <v>4</v>
@@ -3503,17 +3335,17 @@
     </row>
     <row r="20" spans="1:20" ht="50.4">
       <c r="A20" s="101" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="E20" s="154" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="F20" s="89" t="s">
         <v>4</v>
@@ -3535,23 +3367,23 @@
     </row>
     <row r="21" spans="1:20" ht="67.2">
       <c r="A21" s="101" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B21" s="92"/>
       <c r="C21" s="93"/>
       <c r="D21" s="157" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="E21" s="158" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="F21" s="89" t="s">
         <v>4</v>
       </c>
       <c r="G21" s="95"/>
       <c r="H21" s="96"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
+      <c r="I21" s="173"/>
+      <c r="J21" s="173"/>
       <c r="K21" s="53"/>
       <c r="L21" s="53"/>
       <c r="M21" s="53"/>
@@ -3565,23 +3397,23 @@
     </row>
     <row r="22" spans="1:20" ht="50.4">
       <c r="A22" s="101" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B22" s="92"/>
       <c r="C22" s="93"/>
       <c r="D22" s="97" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="E22" s="158" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="F22" s="89" t="s">
         <v>4</v>
       </c>
       <c r="G22" s="95"/>
       <c r="H22" s="96"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
+      <c r="I22" s="173"/>
+      <c r="J22" s="173"/>
       <c r="K22" s="53"/>
       <c r="L22" s="53"/>
       <c r="M22" s="53"/>
@@ -3594,23 +3426,23 @@
     </row>
     <row r="23" spans="1:20" ht="50.4">
       <c r="A23" s="101" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B23" s="92"/>
       <c r="C23" s="93"/>
       <c r="D23" s="97" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="E23" s="158" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="F23" s="89" t="s">
         <v>6</v>
       </c>
       <c r="G23" s="95"/>
       <c r="H23" s="96"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
+      <c r="I23" s="173"/>
+      <c r="J23" s="173"/>
       <c r="K23" s="53"/>
       <c r="L23" s="53"/>
       <c r="M23" s="53"/>
@@ -3623,17 +3455,17 @@
     </row>
     <row r="24" spans="1:20" ht="50.4">
       <c r="A24" s="101" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C24" s="24"/>
       <c r="D24" s="27" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="E24" s="151" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="F24" s="88" t="s">
         <v>4</v>
@@ -3655,15 +3487,15 @@
     </row>
     <row r="25" spans="1:20" ht="50.4">
       <c r="A25" s="101" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
       <c r="D25" s="27" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="E25" s="151" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="F25" s="88" t="s">
         <v>4</v>
@@ -3685,15 +3517,15 @@
     </row>
     <row r="26" spans="1:20" ht="67.2">
       <c r="A26" s="101" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
       <c r="D26" s="27" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="E26" s="151" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="F26" s="88" t="s">
         <v>4</v>
@@ -3715,15 +3547,15 @@
     </row>
     <row r="27" spans="1:20" ht="50.4">
       <c r="A27" s="101" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
       <c r="D27" s="27" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="E27" s="151" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="F27" s="88" t="s">
         <v>4</v>
@@ -3745,15 +3577,15 @@
     </row>
     <row r="28" spans="1:20" ht="50.4">
       <c r="A28" s="101" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
       <c r="D28" s="27" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="E28" s="151" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="F28" s="88" t="s">
         <v>4</v>
@@ -3775,15 +3607,15 @@
     </row>
     <row r="29" spans="1:20" ht="50.4">
       <c r="A29" s="101" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
       <c r="D29" s="27" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="E29" s="151" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="F29" s="88" t="s">
         <v>4</v>
@@ -3805,15 +3637,15 @@
     </row>
     <row r="30" spans="1:20" ht="50.4">
       <c r="A30" s="101" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
       <c r="D30" s="27" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="E30" s="151" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="F30" s="88" t="s">
         <v>4</v>
@@ -3835,15 +3667,15 @@
     </row>
     <row r="31" spans="1:20" ht="50.4">
       <c r="A31" s="101" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
       <c r="D31" s="27" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="E31" s="151" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="F31" s="88" t="s">
         <v>4</v>
@@ -3865,15 +3697,15 @@
     </row>
     <row r="32" spans="1:20" ht="50.4">
       <c r="A32" s="101" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
       <c r="D32" s="27" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="E32" s="151" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="F32" s="89" t="s">
         <v>4</v>
@@ -3895,17 +3727,17 @@
     </row>
     <row r="33" spans="1:19" s="132" customFormat="1" ht="33.6">
       <c r="A33" s="101" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="B33" s="131" t="s">
         <v>27</v>
       </c>
       <c r="C33" s="131"/>
       <c r="D33" s="131" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="E33" s="151" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="F33" s="162" t="s">
         <v>4</v>
@@ -3926,15 +3758,15 @@
     </row>
     <row r="34" spans="1:19" ht="33.6">
       <c r="A34" s="101" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="B34" s="131"/>
       <c r="C34" s="131"/>
       <c r="D34" s="131" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="E34" s="151" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="F34" s="90" t="s">
         <v>4</v>
@@ -3955,15 +3787,15 @@
     </row>
     <row r="35" spans="1:19" ht="33.6">
       <c r="A35" s="101" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B35" s="131"/>
       <c r="C35" s="131"/>
       <c r="D35" s="131" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="E35" s="151" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="F35" s="90" t="s">
         <v>4</v>
@@ -3984,15 +3816,15 @@
     </row>
     <row r="36" spans="1:19" customFormat="1" ht="50.4">
       <c r="A36" s="101" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B36" s="131"/>
       <c r="C36" s="131"/>
       <c r="D36" s="131" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="E36" s="151" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="F36" s="90" t="s">
         <v>4</v>
@@ -4004,15 +3836,15 @@
     </row>
     <row r="37" spans="1:19" customFormat="1" ht="33.6">
       <c r="A37" s="101" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="B37" s="131"/>
       <c r="C37" s="131"/>
       <c r="D37" s="131" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="E37" s="140" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="F37" s="88" t="s">
         <v>4</v>
@@ -4024,15 +3856,15 @@
     </row>
     <row r="38" spans="1:19" customFormat="1" ht="33.6">
       <c r="A38" s="101" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="B38" s="131"/>
       <c r="C38" s="131"/>
       <c r="D38" s="131" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="E38" s="140" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="F38" s="88" t="s">
         <v>4</v>
@@ -4044,15 +3876,15 @@
     </row>
     <row r="39" spans="1:19" customFormat="1" ht="50.4">
       <c r="A39" s="101" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="B39" s="131"/>
       <c r="C39" s="131"/>
       <c r="D39" s="131" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="E39" s="140" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F39" s="24" t="s">
         <v>4</v>
@@ -4139,8 +3971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:A25"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -4161,10 +3993,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -4183,10 +4015,10 @@
     </row>
     <row r="2" spans="1:21" ht="14.4" thickBot="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="236"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="236"/>
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -4207,12 +4039,12 @@
       <c r="A3" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="224" t="s">
+      <c r="B3" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="224"/>
-      <c r="D3" s="224"/>
-      <c r="E3" s="224"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
@@ -4233,10 +4065,10 @@
       <c r="A4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="224"/>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="224"/>
+      <c r="B4" s="186"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="186"/>
       <c r="F4" s="6"/>
       <c r="G4" s="7"/>
       <c r="H4" s="8"/>
@@ -4260,7 +4092,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="82" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C5" s="83"/>
       <c r="D5" s="83"/>
@@ -4379,34 +4211,34 @@
       <c r="T8" s="15"/>
     </row>
     <row r="9" spans="1:21" ht="13.8" customHeight="1">
-      <c r="A9" s="227" t="s">
+      <c r="A9" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="227" t="s">
+      <c r="B9" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="237" t="s">
+      <c r="C9" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="227" t="s">
+      <c r="D9" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="238" t="s">
+      <c r="E9" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="237" t="s">
+      <c r="F9" s="199" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="226" t="s">
+      <c r="G9" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="226" t="s">
+      <c r="H9" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="226" t="s">
+      <c r="I9" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="225" t="s">
+      <c r="J9" s="187" t="s">
         <v>20</v>
       </c>
       <c r="K9" s="18"/>
@@ -4422,16 +4254,16 @@
       <c r="U9" s="19"/>
     </row>
     <row r="10" spans="1:21" ht="22.2" customHeight="1">
-      <c r="A10" s="225"/>
-      <c r="B10" s="225"/>
-      <c r="C10" s="227"/>
-      <c r="D10" s="225"/>
-      <c r="E10" s="239"/>
-      <c r="F10" s="227"/>
-      <c r="G10" s="227"/>
-      <c r="H10" s="227"/>
-      <c r="I10" s="227"/>
-      <c r="J10" s="225"/>
+      <c r="A10" s="187"/>
+      <c r="B10" s="187"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="189"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="189"/>
+      <c r="J10" s="187"/>
       <c r="K10" s="20"/>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
@@ -4455,8 +4287,8 @@
       <c r="F11" s="165"/>
       <c r="G11" s="165"/>
       <c r="H11" s="165"/>
-      <c r="I11" s="233"/>
-      <c r="J11" s="234"/>
+      <c r="I11" s="195"/>
+      <c r="J11" s="196"/>
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
@@ -4470,25 +4302,25 @@
     </row>
     <row r="12" spans="1:21" s="37" customFormat="1" ht="84">
       <c r="A12" s="101" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="24" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="E12" s="91" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F12" s="89" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="58"/>
       <c r="H12" s="24"/>
-      <c r="I12" s="218"/>
-      <c r="J12" s="218"/>
+      <c r="I12" s="171"/>
+      <c r="J12" s="171"/>
       <c r="K12" s="53"/>
       <c r="L12" s="53"/>
       <c r="M12" s="53"/>
@@ -4502,23 +4334,23 @@
     </row>
     <row r="13" spans="1:21" s="37" customFormat="1" ht="84">
       <c r="A13" s="101" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B13" s="92"/>
       <c r="C13" s="93"/>
       <c r="D13" s="94" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="E13" s="97" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="F13" s="93" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="95"/>
-      <c r="H13" s="217"/>
-      <c r="I13" s="220"/>
-      <c r="J13" s="220"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="173"/>
       <c r="K13" s="53"/>
       <c r="L13" s="53"/>
       <c r="M13" s="53"/>
@@ -4532,23 +4364,23 @@
     </row>
     <row r="14" spans="1:21" s="37" customFormat="1" ht="84">
       <c r="A14" s="101" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B14" s="92"/>
       <c r="C14" s="93"/>
       <c r="D14" s="93" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="E14" s="97" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="F14" s="93" t="s">
         <v>4</v>
       </c>
       <c r="G14" s="95"/>
-      <c r="H14" s="217"/>
-      <c r="I14" s="220"/>
-      <c r="J14" s="220"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="173"/>
       <c r="K14" s="53"/>
       <c r="L14" s="53"/>
       <c r="M14" s="53"/>
@@ -4562,23 +4394,23 @@
     </row>
     <row r="15" spans="1:21" s="37" customFormat="1" ht="67.2">
       <c r="A15" s="101" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="B15" s="92"/>
       <c r="C15" s="93"/>
       <c r="D15" s="93" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="E15" s="97" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="F15" s="93" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="95"/>
-      <c r="H15" s="217"/>
-      <c r="I15" s="220"/>
-      <c r="J15" s="220"/>
+      <c r="H15" s="170"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="173"/>
       <c r="K15" s="53"/>
       <c r="L15" s="53"/>
       <c r="M15" s="53"/>
@@ -4592,23 +4424,23 @@
     </row>
     <row r="16" spans="1:21" s="37" customFormat="1" ht="100.8">
       <c r="A16" s="101" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="B16" s="92"/>
       <c r="C16" s="93"/>
       <c r="D16" s="93" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="E16" s="93" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="F16" s="100" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="95"/>
-      <c r="H16" s="217"/>
-      <c r="I16" s="220"/>
-      <c r="J16" s="220"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="173"/>
+      <c r="J16" s="173"/>
       <c r="K16" s="53"/>
       <c r="L16" s="53"/>
       <c r="M16" s="53"/>
@@ -4621,25 +4453,25 @@
     </row>
     <row r="17" spans="1:20" s="37" customFormat="1" ht="84">
       <c r="A17" s="101" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="24" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="E17" s="151" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="F17" s="88" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="27"/>
-      <c r="I17" s="220"/>
-      <c r="J17" s="220"/>
+      <c r="I17" s="173"/>
+      <c r="J17" s="173"/>
       <c r="K17" s="53"/>
       <c r="L17" s="53"/>
       <c r="M17" s="53"/>
@@ -4652,23 +4484,23 @@
     </row>
     <row r="18" spans="1:20" s="37" customFormat="1" ht="67.2">
       <c r="A18" s="101" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
       <c r="D18" s="24" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E18" s="151" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="F18" s="89" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="25"/>
       <c r="H18" s="27"/>
-      <c r="I18" s="220"/>
-      <c r="J18" s="220"/>
+      <c r="I18" s="173"/>
+      <c r="J18" s="173"/>
       <c r="K18" s="53"/>
       <c r="L18" s="53"/>
       <c r="M18" s="53"/>
@@ -4681,7 +4513,7 @@
     </row>
     <row r="19" spans="1:20" s="132" customFormat="1" ht="33.6">
       <c r="A19" s="101" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="B19" s="131" t="s">
         <v>27</v>
@@ -4698,8 +4530,8 @@
       </c>
       <c r="G19" s="159"/>
       <c r="H19" s="160"/>
-      <c r="I19" s="219"/>
-      <c r="J19" s="219"/>
+      <c r="I19" s="172"/>
+      <c r="J19" s="172"/>
       <c r="K19" s="161"/>
       <c r="L19" s="161"/>
       <c r="M19" s="161"/>
@@ -4712,15 +4544,15 @@
     </row>
     <row r="20" spans="1:20" s="132" customFormat="1" ht="50.4">
       <c r="A20" s="101" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="B20" s="131"/>
       <c r="C20" s="131"/>
       <c r="D20" s="131" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="E20" s="140" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="F20" s="159" t="s">
         <v>4</v>
@@ -4741,15 +4573,15 @@
     </row>
     <row r="21" spans="1:20" s="132" customFormat="1" ht="50.4">
       <c r="A21" s="101" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="B21" s="131"/>
       <c r="C21" s="131"/>
       <c r="D21" s="131" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="E21" s="140" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="F21" s="159" t="s">
         <v>4</v>
@@ -4770,15 +4602,15 @@
     </row>
     <row r="22" spans="1:20" s="132" customFormat="1" ht="33.6">
       <c r="A22" s="101" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B22" s="131"/>
       <c r="C22" s="131"/>
       <c r="D22" s="131" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="E22" s="140" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="F22" s="159" t="s">
         <v>8</v>
@@ -4800,15 +4632,15 @@
     </row>
     <row r="23" spans="1:20" s="132" customFormat="1" ht="33.6">
       <c r="A23" s="101" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="B23" s="131"/>
       <c r="C23" s="131"/>
       <c r="D23" s="131" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="E23" s="140" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="F23" s="159" t="s">
         <v>8</v>
@@ -4830,15 +4662,15 @@
     </row>
     <row r="24" spans="1:20" s="132" customFormat="1" ht="50.4">
       <c r="A24" s="101" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="B24" s="131"/>
       <c r="C24" s="131"/>
       <c r="D24" s="131" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="E24" s="140" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="F24" s="159" t="s">
         <v>8</v>
@@ -4860,15 +4692,15 @@
     </row>
     <row r="25" spans="1:20" s="132" customFormat="1" ht="50.4">
       <c r="A25" s="101" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="B25" s="131"/>
       <c r="C25" s="131"/>
       <c r="D25" s="131" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="E25" s="140" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="F25" s="159" t="s">
         <v>8</v>
@@ -5067,8 +4899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -5086,10 +4918,10 @@
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -5108,10 +4940,10 @@
     </row>
     <row r="2" spans="1:21" ht="14.4" thickBot="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="236"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="236"/>
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -5132,12 +4964,12 @@
       <c r="A3" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="224" t="s">
+      <c r="B3" s="186" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="224"/>
-      <c r="D3" s="224"/>
-      <c r="E3" s="224"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
@@ -5158,10 +4990,10 @@
       <c r="A4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="224"/>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="224"/>
+      <c r="B4" s="186"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="186"/>
       <c r="F4" s="6"/>
       <c r="G4" s="7"/>
       <c r="H4" s="8"/>
@@ -5185,7 +5017,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="82" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C5" s="83"/>
       <c r="D5" s="83"/>
@@ -5304,34 +5136,34 @@
       <c r="T8" s="48"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="227" t="s">
+      <c r="A9" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="227" t="s">
+      <c r="B9" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="237" t="s">
+      <c r="C9" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="227" t="s">
+      <c r="D9" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="238" t="s">
+      <c r="E9" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="237" t="s">
+      <c r="F9" s="199" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="226" t="s">
+      <c r="G9" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="226" t="s">
+      <c r="H9" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="226" t="s">
+      <c r="I9" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="225" t="s">
+      <c r="J9" s="187" t="s">
         <v>20</v>
       </c>
       <c r="K9" s="49"/>
@@ -5347,16 +5179,16 @@
       <c r="U9" s="50"/>
     </row>
     <row r="10" spans="1:21" ht="33" customHeight="1">
-      <c r="A10" s="225"/>
-      <c r="B10" s="225"/>
-      <c r="C10" s="227"/>
-      <c r="D10" s="225"/>
-      <c r="E10" s="239"/>
-      <c r="F10" s="240"/>
-      <c r="G10" s="227"/>
-      <c r="H10" s="227"/>
-      <c r="I10" s="227"/>
-      <c r="J10" s="225"/>
+      <c r="A10" s="187"/>
+      <c r="B10" s="187"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="202"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="189"/>
+      <c r="J10" s="187"/>
       <c r="K10" s="51"/>
       <c r="L10" s="52"/>
       <c r="M10" s="52"/>
@@ -5371,7 +5203,7 @@
     </row>
     <row r="11" spans="1:21" ht="23.4" customHeight="1">
       <c r="A11" s="165" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="B11" s="167"/>
       <c r="C11" s="167"/>
@@ -5380,8 +5212,8 @@
       <c r="F11" s="167"/>
       <c r="G11" s="167"/>
       <c r="H11" s="167"/>
-      <c r="I11" s="221"/>
-      <c r="J11" s="222"/>
+      <c r="I11" s="183"/>
+      <c r="J11" s="184"/>
       <c r="K11" s="53"/>
       <c r="L11" s="53"/>
       <c r="M11" s="53"/>
@@ -5395,7 +5227,7 @@
     </row>
     <row r="12" spans="1:21" ht="67.2">
       <c r="A12" s="101" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>50</v>
@@ -5427,15 +5259,15 @@
     </row>
     <row r="13" spans="1:21" ht="33.6">
       <c r="A13" s="101" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
       <c r="D13" s="24" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>4</v>
@@ -5457,15 +5289,15 @@
     </row>
     <row r="14" spans="1:21" ht="33.6">
       <c r="A14" s="101" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="E14" s="55" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>8</v>
@@ -5487,7 +5319,7 @@
     </row>
     <row r="15" spans="1:21" ht="50.4">
       <c r="A15" s="101" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>30</v>
@@ -5519,7 +5351,7 @@
     </row>
     <row r="16" spans="1:21" ht="37.5" customHeight="1">
       <c r="A16" s="101" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
@@ -5549,7 +5381,7 @@
     </row>
     <row r="17" spans="1:10" ht="50.4">
       <c r="A17" s="101" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
@@ -5557,7 +5389,7 @@
         <v>33</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>4</v>
@@ -5569,7 +5401,7 @@
     </row>
     <row r="18" spans="1:10" ht="50.4">
       <c r="A18" s="101" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
@@ -5577,7 +5409,7 @@
         <v>34</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>4</v>
@@ -5640,7 +5472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -5761,7 +5593,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="82" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C5" s="83"/>
       <c r="D5" s="83"/>
@@ -5880,34 +5712,34 @@
       <c r="T8" s="15"/>
     </row>
     <row r="9" spans="1:21" ht="15" customHeight="1">
-      <c r="A9" s="227" t="s">
+      <c r="A9" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="237" t="s">
+      <c r="B9" s="199" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="237" t="s">
+      <c r="C9" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="237" t="s">
+      <c r="D9" s="199" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="237" t="s">
+      <c r="E9" s="199" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="237" t="s">
+      <c r="F9" s="199" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="226" t="s">
+      <c r="G9" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="226" t="s">
+      <c r="H9" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="226" t="s">
+      <c r="I9" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="225" t="s">
+      <c r="J9" s="187" t="s">
         <v>20</v>
       </c>
       <c r="K9" s="18"/>
@@ -5923,16 +5755,16 @@
       <c r="U9" s="19"/>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1">
-      <c r="A10" s="225"/>
-      <c r="B10" s="227"/>
-      <c r="C10" s="227"/>
-      <c r="D10" s="227"/>
-      <c r="E10" s="227"/>
-      <c r="F10" s="240"/>
-      <c r="G10" s="227"/>
-      <c r="H10" s="227"/>
-      <c r="I10" s="227"/>
-      <c r="J10" s="225"/>
+      <c r="A10" s="187"/>
+      <c r="B10" s="189"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="189"/>
+      <c r="E10" s="189"/>
+      <c r="F10" s="202"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="189"/>
+      <c r="J10" s="187"/>
       <c r="K10" s="20"/>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
@@ -5947,7 +5779,7 @@
     </row>
     <row r="11" spans="1:21" ht="28.2" customHeight="1">
       <c r="A11" s="166" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="B11" s="166"/>
       <c r="C11" s="166"/>
@@ -5956,8 +5788,8 @@
       <c r="F11" s="166"/>
       <c r="G11" s="166"/>
       <c r="H11" s="166"/>
-      <c r="I11" s="241"/>
-      <c r="J11" s="242"/>
+      <c r="I11" s="203"/>
+      <c r="J11" s="204"/>
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
@@ -5971,7 +5803,7 @@
     </row>
     <row r="12" spans="1:21" ht="50.4">
       <c r="A12" s="101" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>37</v>
@@ -6003,7 +5835,7 @@
     </row>
     <row r="13" spans="1:21" s="37" customFormat="1" ht="50.4">
       <c r="A13" s="101" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
@@ -6011,7 +5843,7 @@
         <v>53</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="F13" s="28" t="s">
         <v>4</v>
@@ -6032,7 +5864,7 @@
     </row>
     <row r="14" spans="1:21" s="37" customFormat="1" ht="50.4">
       <c r="A14" s="101" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
@@ -6061,7 +5893,7 @@
     </row>
     <row r="15" spans="1:21" ht="33" customHeight="1">
       <c r="A15" s="101" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>30</v>
@@ -6071,7 +5903,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>4</v>
@@ -6093,15 +5925,15 @@
     </row>
     <row r="16" spans="1:21" ht="33.6">
       <c r="A16" s="101" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
       <c r="D16" s="24" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>4</v>
@@ -6123,12 +5955,12 @@
     </row>
     <row r="17" spans="1:20" ht="50.4">
       <c r="A17" s="101" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="E17" s="24" t="s">
         <v>41</v>
@@ -6247,7 +6079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -6269,10 +6101,10 @@
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
-      <c r="E1" s="246"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
       <c r="F1" s="62"/>
       <c r="G1" s="63"/>
       <c r="H1" s="63"/>
@@ -6291,10 +6123,10 @@
     </row>
     <row r="2" spans="1:21" ht="14.4" thickBot="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="247"/>
-      <c r="C2" s="248"/>
-      <c r="D2" s="248"/>
-      <c r="E2" s="248"/>
+      <c r="B2" s="207"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
       <c r="F2" s="78"/>
       <c r="G2" s="77"/>
       <c r="H2" s="77"/>
@@ -6315,12 +6147,12 @@
       <c r="A3" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="224" t="s">
+      <c r="B3" s="186" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="224"/>
-      <c r="D3" s="224"/>
-      <c r="E3" s="224"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
       <c r="F3" s="65"/>
       <c r="G3" s="66"/>
       <c r="H3" s="67"/>
@@ -6341,10 +6173,10 @@
       <c r="A4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="224"/>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="224"/>
+      <c r="B4" s="186"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="186"/>
       <c r="F4" s="65"/>
       <c r="G4" s="66"/>
       <c r="H4" s="67"/>
@@ -6367,12 +6199,12 @@
       <c r="A5" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="230" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="230"/>
-      <c r="D5" s="230"/>
-      <c r="E5" s="230"/>
+      <c r="B5" s="192" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="192"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="192"/>
       <c r="F5" s="70"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -6487,34 +6319,34 @@
       <c r="T8" s="48"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="227" t="s">
+      <c r="A9" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="227" t="s">
+      <c r="B9" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="237" t="s">
+      <c r="C9" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="227" t="s">
+      <c r="D9" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="243" t="s">
+      <c r="E9" s="209" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="237" t="s">
+      <c r="F9" s="199" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="226" t="s">
+      <c r="G9" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="226" t="s">
+      <c r="H9" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="226" t="s">
+      <c r="I9" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="225" t="s">
+      <c r="J9" s="187" t="s">
         <v>20</v>
       </c>
       <c r="K9" s="49"/>
@@ -6530,16 +6362,16 @@
       <c r="U9" s="50"/>
     </row>
     <row r="10" spans="1:21" ht="33" customHeight="1">
-      <c r="A10" s="225"/>
-      <c r="B10" s="225"/>
-      <c r="C10" s="227"/>
-      <c r="D10" s="225"/>
-      <c r="E10" s="244"/>
-      <c r="F10" s="240"/>
-      <c r="G10" s="227"/>
-      <c r="H10" s="227"/>
-      <c r="I10" s="227"/>
-      <c r="J10" s="225"/>
+      <c r="A10" s="187"/>
+      <c r="B10" s="187"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="210"/>
+      <c r="F10" s="202"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="189"/>
+      <c r="J10" s="187"/>
       <c r="K10" s="51"/>
       <c r="L10" s="52"/>
       <c r="M10" s="52"/>
@@ -6554,7 +6386,7 @@
     </row>
     <row r="11" spans="1:21" ht="31.8" customHeight="1">
       <c r="A11" s="147" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B11" s="142"/>
       <c r="C11" s="142"/>
@@ -6578,17 +6410,17 @@
     </row>
     <row r="12" spans="1:21" ht="84">
       <c r="A12" s="129" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B12" s="133" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="134"/>
       <c r="D12" s="135" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="E12" s="153" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="F12" s="136" t="s">
         <v>4</v>
@@ -6600,15 +6432,15 @@
     </row>
     <row r="13" spans="1:21" ht="84">
       <c r="A13" s="164" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B13" s="54"/>
       <c r="C13" s="44"/>
       <c r="D13" s="24" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="E13" s="151" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="F13" s="88" t="s">
         <v>8</v>
@@ -6620,15 +6452,15 @@
     </row>
     <row r="14" spans="1:21" ht="84">
       <c r="A14" s="164" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="E14" s="151" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="F14" s="88" t="s">
         <v>8</v>
@@ -6640,15 +6472,15 @@
     </row>
     <row r="15" spans="1:21" ht="67.2">
       <c r="A15" s="164" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
       <c r="D15" s="24" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="E15" s="154" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="F15" s="89" t="s">
         <v>4</v>
@@ -6660,7 +6492,7 @@
     </row>
     <row r="16" spans="1:21" ht="84">
       <c r="A16" s="164" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>26</v>
@@ -6670,7 +6502,7 @@
         <v>43</v>
       </c>
       <c r="E16" s="131" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>4</v>
@@ -6682,7 +6514,7 @@
     </row>
     <row r="17" spans="1:21" ht="84">
       <c r="A17" s="164" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
@@ -6690,7 +6522,7 @@
         <v>44</v>
       </c>
       <c r="E17" s="131" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>4</v>
@@ -6702,7 +6534,7 @@
     </row>
     <row r="18" spans="1:21" ht="84">
       <c r="A18" s="164" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
@@ -6710,7 +6542,7 @@
         <v>45</v>
       </c>
       <c r="E18" s="131" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>4</v>
@@ -6722,7 +6554,7 @@
     </row>
     <row r="19" spans="1:21" ht="84">
       <c r="A19" s="164" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
@@ -6730,7 +6562,7 @@
         <v>46</v>
       </c>
       <c r="E19" s="131" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>4</v>
@@ -6742,7 +6574,7 @@
     </row>
     <row r="20" spans="1:21" ht="84">
       <c r="A20" s="164" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
@@ -6750,7 +6582,7 @@
         <v>47</v>
       </c>
       <c r="E20" s="151" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>4</v>
@@ -6762,7 +6594,7 @@
     </row>
     <row r="21" spans="1:21" ht="84">
       <c r="A21" s="164" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
@@ -6770,7 +6602,7 @@
         <v>48</v>
       </c>
       <c r="E21" s="131" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>4</v>
@@ -6782,15 +6614,15 @@
     </row>
     <row r="22" spans="1:21" ht="84">
       <c r="A22" s="164" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
       <c r="D22" s="24" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="E22" s="131" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>4</v>
@@ -6802,15 +6634,15 @@
     </row>
     <row r="23" spans="1:21" ht="67.2">
       <c r="A23" s="164" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
       <c r="D23" s="24" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="E23" s="131" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>4</v>
@@ -6822,7 +6654,7 @@
     </row>
     <row r="24" spans="1:21" ht="67.2">
       <c r="A24" s="164" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>28</v>
@@ -6832,7 +6664,7 @@
         <v>49</v>
       </c>
       <c r="E24" s="151" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="F24" s="28" t="s">
         <v>4</v>
@@ -6844,15 +6676,15 @@
     </row>
     <row r="25" spans="1:21" s="132" customFormat="1" ht="67.2">
       <c r="A25" s="164" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B25" s="131"/>
       <c r="C25" s="131"/>
       <c r="D25" s="131" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="E25" s="151" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>4</v>
@@ -6864,17 +6696,17 @@
     </row>
     <row r="26" spans="1:21" s="132" customFormat="1" ht="67.2">
       <c r="A26" s="164" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B26" s="131" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C26" s="131"/>
       <c r="D26" s="131" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E26" s="131" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="F26" s="140" t="s">
         <v>4</v>
@@ -6886,17 +6718,17 @@
     </row>
     <row r="27" spans="1:21" s="132" customFormat="1" ht="84">
       <c r="A27" s="164" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B27" s="131" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C27" s="131"/>
       <c r="D27" s="131" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="E27" s="131" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="F27" s="140" t="s">
         <v>4</v>
@@ -6908,15 +6740,15 @@
     </row>
     <row r="28" spans="1:21" s="132" customFormat="1" ht="67.2">
       <c r="A28" s="164" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B28" s="131"/>
       <c r="C28" s="131"/>
       <c r="D28" s="131" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="E28" s="131" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="F28" s="140" t="s">
         <v>8</v>
@@ -6928,17 +6760,17 @@
     </row>
     <row r="29" spans="1:21" s="132" customFormat="1" ht="67.2">
       <c r="A29" s="164" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B29" s="131" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="C29" s="131"/>
       <c r="D29" s="131" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="E29" s="131" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="F29" s="140" t="s">
         <v>8</v>
@@ -6950,15 +6782,15 @@
     </row>
     <row r="30" spans="1:21" s="132" customFormat="1" ht="67.2">
       <c r="A30" s="164" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="B30" s="131"/>
       <c r="C30" s="131"/>
       <c r="D30" s="131" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="E30" s="131" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="F30" s="140" t="s">
         <v>4</v>
@@ -6970,15 +6802,15 @@
     </row>
     <row r="31" spans="1:21" s="132" customFormat="1" ht="67.2">
       <c r="A31" s="164" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="B31" s="131"/>
       <c r="C31" s="131"/>
       <c r="D31" s="131" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="E31" s="131" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="F31" s="140" t="s">
         <v>8</v>
@@ -6990,7 +6822,7 @@
     </row>
     <row r="32" spans="1:21" s="139" customFormat="1" ht="35.4" customHeight="1">
       <c r="A32" s="150" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B32" s="149"/>
       <c r="C32" s="149"/>
@@ -7015,17 +6847,17 @@
     </row>
     <row r="33" spans="1:10" s="132" customFormat="1" ht="84">
       <c r="A33" s="130" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="B33" s="131" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="C33" s="131"/>
       <c r="D33" s="131" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="E33" s="131" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="F33" s="140" t="s">
         <v>8</v>
@@ -7037,17 +6869,17 @@
     </row>
     <row r="34" spans="1:10" s="132" customFormat="1" ht="33.6">
       <c r="A34" s="130" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="B34" s="131" t="s">
         <v>27</v>
       </c>
       <c r="C34" s="131"/>
       <c r="D34" s="131" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="E34" s="151" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="F34" s="131" t="s">
         <v>8</v>
@@ -7059,15 +6891,15 @@
     </row>
     <row r="35" spans="1:10" s="132" customFormat="1" ht="33.6">
       <c r="A35" s="130" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B35" s="131"/>
       <c r="C35" s="131"/>
       <c r="D35" s="131" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="E35" s="151" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="F35" s="131" t="s">
         <v>8</v>
@@ -7079,7 +6911,7 @@
     </row>
     <row r="36" spans="1:10" s="132" customFormat="1" ht="33.6">
       <c r="A36" s="130" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="B36" s="131"/>
       <c r="C36" s="131"/>
@@ -7099,11 +6931,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
@@ -7113,6 +6940,11 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <dataValidations count="1">
@@ -7127,15 +6959,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:E16"/>
+    <sheetView topLeftCell="A3" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="6" width="10.44140625" style="37" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" style="182" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="37" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" style="37" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="37" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" style="37" customWidth="1"/>
     <col min="8" max="9" width="8.88671875" style="37"/>
     <col min="10" max="10" width="18.33203125" style="37" customWidth="1"/>
@@ -7146,10 +6983,10 @@
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -7168,10 +7005,10 @@
     </row>
     <row r="2" spans="1:21" ht="14.4" thickBot="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="236"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="236"/>
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -7192,12 +7029,12 @@
       <c r="A3" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="224" t="s">
+      <c r="B3" s="186" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="224"/>
-      <c r="D3" s="224"/>
-      <c r="E3" s="224"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
@@ -7218,10 +7055,10 @@
       <c r="A4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="224"/>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="224"/>
+      <c r="B4" s="186"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="186"/>
       <c r="F4" s="6"/>
       <c r="G4" s="7"/>
       <c r="H4" s="8"/>
@@ -7240,12 +7077,12 @@
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
     </row>
-    <row r="5" spans="1:21" ht="26.4">
+    <row r="5" spans="1:21">
       <c r="A5" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="82" t="s">
-        <v>94</v>
+      <c r="B5" s="180" t="s">
+        <v>77</v>
       </c>
       <c r="C5" s="83"/>
       <c r="D5" s="83"/>
@@ -7268,7 +7105,7 @@
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
     </row>
-    <row r="6" spans="1:21" ht="26.4">
+    <row r="6" spans="1:21">
       <c r="A6" s="86" t="s">
         <v>4</v>
       </c>
@@ -7305,11 +7142,11 @@
     <row r="7" spans="1:21" ht="14.4" thickBot="1">
       <c r="A7" s="47">
         <f>COUNTIF(F:F,"Pass")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B7" s="87">
         <f xml:space="preserve"> COUNTIF(F:F,"Fail")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C7" s="87">
         <f>COUNTIF(F:F,"untested")</f>
@@ -7317,11 +7154,11 @@
       </c>
       <c r="D7" s="87">
         <f>COUNTIF(F:F,"N/A")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E7" s="87">
         <f>COUNTIF(A:A,"*-*")</f>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -7343,7 +7180,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="48"/>
-      <c r="B8" s="17"/>
+      <c r="B8" s="181"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -7364,34 +7201,34 @@
       <c r="T8" s="48"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="227" t="s">
+      <c r="A9" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="227" t="s">
+      <c r="B9" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="237" t="s">
+      <c r="C9" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="227" t="s">
+      <c r="D9" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="238" t="s">
+      <c r="E9" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="237" t="s">
+      <c r="F9" s="199" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="226" t="s">
+      <c r="G9" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="226" t="s">
+      <c r="H9" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="226" t="s">
+      <c r="I9" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="225" t="s">
+      <c r="J9" s="187" t="s">
         <v>20</v>
       </c>
       <c r="K9" s="49"/>
@@ -7407,16 +7244,16 @@
       <c r="U9" s="50"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="225"/>
-      <c r="B10" s="225"/>
-      <c r="C10" s="227"/>
-      <c r="D10" s="225"/>
-      <c r="E10" s="239"/>
-      <c r="F10" s="240"/>
-      <c r="G10" s="227"/>
-      <c r="H10" s="227"/>
-      <c r="I10" s="227"/>
-      <c r="J10" s="225"/>
+      <c r="A10" s="187"/>
+      <c r="B10" s="187"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="202"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="189"/>
+      <c r="J10" s="187"/>
       <c r="K10" s="51"/>
       <c r="L10" s="52"/>
       <c r="M10" s="52"/>
@@ -7433,15 +7270,15 @@
       <c r="A11" s="165" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="167"/>
+      <c r="B11" s="174"/>
       <c r="C11" s="167"/>
       <c r="D11" s="167"/>
       <c r="E11" s="167"/>
       <c r="F11" s="167"/>
       <c r="G11" s="167"/>
       <c r="H11" s="167"/>
-      <c r="I11" s="221"/>
-      <c r="J11" s="222"/>
+      <c r="I11" s="183"/>
+      <c r="J11" s="184"/>
       <c r="K11" s="53"/>
       <c r="L11" s="53"/>
       <c r="M11" s="53"/>
@@ -7453,22 +7290,22 @@
       <c r="S11" s="53"/>
       <c r="T11" s="53"/>
     </row>
-    <row r="12" spans="1:21" ht="184.8">
+    <row r="12" spans="1:21" ht="50.4">
       <c r="A12" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>59</v>
+        <v>315</v>
+      </c>
+      <c r="B12" s="211" t="s">
+        <v>313</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="24" t="s">
-        <v>88</v>
+        <v>291</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>61</v>
+        <v>298</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="24"/>
@@ -7485,22 +7322,20 @@
       <c r="S12" s="53"/>
       <c r="T12" s="53"/>
     </row>
-    <row r="13" spans="1:21" ht="184.8">
-      <c r="A13" s="80" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>60</v>
-      </c>
+    <row r="13" spans="1:21" ht="50.4">
+      <c r="A13" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="B13" s="212"/>
       <c r="C13" s="24"/>
       <c r="D13" s="24" t="s">
-        <v>87</v>
+        <v>296</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>61</v>
+        <v>292</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="24"/>
@@ -7517,22 +7352,22 @@
       <c r="S13" s="53"/>
       <c r="T13" s="53"/>
     </row>
-    <row r="14" spans="1:21" ht="184.8">
+    <row r="14" spans="1:21" ht="50.4">
       <c r="A14" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>63</v>
+        <v>317</v>
+      </c>
+      <c r="B14" s="179" t="s">
+        <v>314</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24" t="s">
-        <v>89</v>
+        <v>297</v>
       </c>
       <c r="E14" s="55" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="24"/>
@@ -7549,20 +7384,22 @@
       <c r="S14" s="53"/>
       <c r="T14" s="53"/>
     </row>
-    <row r="15" spans="1:21" ht="201.6">
-      <c r="A15" s="80" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="24"/>
+    <row r="15" spans="1:21" ht="50.4">
+      <c r="A15" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="B15" s="211" t="s">
+        <v>313</v>
+      </c>
       <c r="C15" s="24"/>
       <c r="D15" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>66</v>
+        <v>290</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>298</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="24"/>
@@ -7579,50 +7416,290 @@
       <c r="S15" s="53"/>
       <c r="T15" s="53"/>
     </row>
-    <row r="16" spans="1:21" ht="235.2">
+    <row r="16" spans="1:21" ht="50.4">
       <c r="A16" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>68</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="B16" s="212"/>
       <c r="C16" s="24"/>
       <c r="D16" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>66</v>
+        <v>294</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>299</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
-    </row>
-    <row r="20" spans="1:10" s="56" customFormat="1" ht="16.8">
-      <c r="A20" s="38"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="32"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-    </row>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+    </row>
+    <row r="17" spans="1:20" ht="50.4">
+      <c r="A17" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="B17" s="101" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="25"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+    </row>
+    <row r="18" spans="1:20" ht="50.4">
+      <c r="A18" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="B18" s="211" t="s">
+        <v>313</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" spans="1:20" ht="50.4">
+      <c r="A19" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="B19" s="212"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+    </row>
+    <row r="20" spans="1:20" ht="50.4">
+      <c r="A20" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="B20" s="101" t="s">
+        <v>314</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+    </row>
+    <row r="21" spans="1:20" ht="50.4">
+      <c r="A21" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="B21" s="211" t="s">
+        <v>313</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+    </row>
+    <row r="22" spans="1:20" s="56" customFormat="1" ht="50.4">
+      <c r="A22" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="B22" s="212"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+    </row>
+    <row r="23" spans="1:20" ht="50.4">
+      <c r="A23" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B23" s="101" t="s">
+        <v>314</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="E23" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="175"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+    </row>
+    <row r="24" spans="1:20" ht="84">
+      <c r="A24" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="B24" s="213" t="s">
+        <v>312</v>
+      </c>
+      <c r="C24" s="176"/>
+      <c r="D24" s="178" t="s">
+        <v>308</v>
+      </c>
+      <c r="E24" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+    </row>
+    <row r="25" spans="1:20" ht="64.8" customHeight="1">
+      <c r="A25" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="B25" s="214"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="54" t="s">
+        <v>309</v>
+      </c>
+      <c r="E25" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+    </row>
+    <row r="26" spans="1:20" ht="33.6" customHeight="1">
+      <c r="A26" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="B26" s="214"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="177" t="s">
+        <v>310</v>
+      </c>
+      <c r="E26" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+    </row>
+    <row r="27" spans="1:20" ht="50.4">
+      <c r="A27" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="B27" s="215"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="80" t="s">
+        <v>311</v>
+      </c>
+      <c r="E27" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="F27" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+    </row>
+    <row r="28" spans="1:20" ht="13.8" customHeight="1"/>
+    <row r="29" spans="1:20" ht="13.8" customHeight="1"/>
+    <row r="30" spans="1:20" ht="13.8" customHeight="1"/>
+    <row r="31" spans="1:20" ht="13.8" customHeight="1"/>
+    <row r="32" spans="1:20" ht="13.8" customHeight="1"/>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="19">
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B24:B27"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="B1:E2"/>
     <mergeCell ref="B3:E3"/>
@@ -7639,684 +7716,21 @@
     <mergeCell ref="J9:J10"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F27 F31:F1048576 E28:E30">
       <formula1>$I$4:$I$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J40"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="174"/>
-    <col min="2" max="2" width="22" style="174" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" style="174" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" style="174" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" style="174" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="174" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="174"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="26.4">
-      <c r="A1" s="171" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="249"/>
-      <c r="C1" s="249"/>
-      <c r="D1" s="249"/>
-      <c r="E1" s="249"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1">
-      <c r="A2" s="175"/>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-    </row>
-    <row r="3" spans="1:10" ht="26.4">
-      <c r="A3" s="178" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="250" t="s">
-        <v>240</v>
-      </c>
-      <c r="C3" s="250"/>
-      <c r="D3" s="250"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-    </row>
-    <row r="4" spans="1:10" ht="39.6">
-      <c r="A4" s="183" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="250"/>
-      <c r="C4" s="250"/>
-      <c r="D4" s="250"/>
-      <c r="E4" s="250"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="182" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="182"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="251" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="251"/>
-      <c r="D5" s="251"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="186"/>
-      <c r="I5" s="182" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="182"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="86" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="144" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="187"/>
-      <c r="G6" s="188"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="182" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="182"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
-      <c r="A7" s="47">
-        <f>COUNTIF(F:F,"Pass")</f>
-        <v>1</v>
-      </c>
-      <c r="B7" s="87">
-        <f xml:space="preserve"> COUNTIF(F:F,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="87">
-        <f>COUNTIF(F:F,"untested")</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="87">
-        <f>COUNTIF(F:F,"N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="145">
-        <f>COUNTIF(A:A,"*-*")</f>
-        <v>29</v>
-      </c>
-      <c r="F7" s="190"/>
-      <c r="G7" s="191"/>
-      <c r="H7" s="192"/>
-      <c r="I7" s="193" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="193"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="194"/>
-      <c r="B8" s="195"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="195"/>
-      <c r="G8" s="195"/>
-      <c r="H8" s="195"/>
-      <c r="I8" s="195"/>
-      <c r="J8" s="195"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="225" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="225" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="226" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="225" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="228" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="231" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="226" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="226" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="226" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="225" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="225"/>
-      <c r="B10" s="225"/>
-      <c r="C10" s="227"/>
-      <c r="D10" s="225"/>
-      <c r="E10" s="229"/>
-      <c r="F10" s="232"/>
-      <c r="G10" s="227"/>
-      <c r="H10" s="227"/>
-      <c r="I10" s="227"/>
-      <c r="J10" s="225"/>
-    </row>
-    <row r="11" spans="1:10" ht="16.8">
-      <c r="A11" s="170" t="s">
-        <v>297</v>
-      </c>
-      <c r="B11" s="167"/>
-      <c r="C11" s="167"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="169"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="167"/>
-      <c r="I11" s="221"/>
-      <c r="J11" s="222"/>
-    </row>
-    <row r="12" spans="1:10" ht="201.6">
-      <c r="A12" s="101" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="80" t="s">
-        <v>298</v>
-      </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="197" t="s">
-        <v>303</v>
-      </c>
-      <c r="E12" s="198" t="s">
-        <v>307</v>
-      </c>
-      <c r="F12" s="199" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="200"/>
-      <c r="H12" s="197"/>
-      <c r="I12" s="197"/>
-      <c r="J12" s="197"/>
-    </row>
-    <row r="13" spans="1:10" ht="168">
-      <c r="A13" s="101" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="197" t="s">
-        <v>299</v>
-      </c>
-      <c r="E13" s="198"/>
-      <c r="F13" s="199"/>
-      <c r="G13" s="200"/>
-      <c r="H13" s="197"/>
-      <c r="I13" s="197"/>
-      <c r="J13" s="197"/>
-    </row>
-    <row r="14" spans="1:10" ht="184.8">
-      <c r="A14" s="101" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="197"/>
-      <c r="C14" s="197"/>
-      <c r="D14" s="197" t="s">
-        <v>300</v>
-      </c>
-      <c r="E14" s="198"/>
-      <c r="F14" s="199"/>
-      <c r="G14" s="200"/>
-      <c r="H14" s="197"/>
-      <c r="I14" s="197"/>
-      <c r="J14" s="197"/>
-    </row>
-    <row r="15" spans="1:10" ht="168">
-      <c r="A15" s="101" t="s">
-        <v>287</v>
-      </c>
-      <c r="B15" s="197"/>
-      <c r="C15" s="197"/>
-      <c r="D15" s="197" t="s">
-        <v>304</v>
-      </c>
-      <c r="E15" s="201"/>
-      <c r="F15" s="202"/>
-      <c r="G15" s="203"/>
-      <c r="H15" s="197"/>
-      <c r="I15" s="197"/>
-      <c r="J15" s="197"/>
-    </row>
-    <row r="16" spans="1:10" ht="252">
-      <c r="A16" s="101" t="s">
-        <v>288</v>
-      </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="197" t="s">
-        <v>302</v>
-      </c>
-      <c r="E16" s="198"/>
-      <c r="F16" s="199"/>
-      <c r="G16" s="200"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="197"/>
-    </row>
-    <row r="17" spans="1:10" ht="235.2">
-      <c r="A17" s="101" t="s">
-        <v>289</v>
-      </c>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="197" t="s">
-        <v>301</v>
-      </c>
-      <c r="E17" s="198"/>
-      <c r="F17" s="199"/>
-      <c r="G17" s="200"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="197"/>
-      <c r="J17" s="197"/>
-    </row>
-    <row r="18" spans="1:10" ht="235.2">
-      <c r="A18" s="101" t="s">
-        <v>290</v>
-      </c>
-      <c r="B18" s="197"/>
-      <c r="C18" s="197"/>
-      <c r="D18" s="197" t="s">
-        <v>305</v>
-      </c>
-      <c r="E18" s="198"/>
-      <c r="F18" s="199"/>
-      <c r="G18" s="200"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="197"/>
-      <c r="J18" s="197"/>
-    </row>
-    <row r="19" spans="1:10" ht="252">
-      <c r="A19" s="101" t="s">
-        <v>291</v>
-      </c>
-      <c r="B19" s="197"/>
-      <c r="C19" s="197"/>
-      <c r="D19" s="197" t="s">
-        <v>306</v>
-      </c>
-      <c r="E19" s="198"/>
-      <c r="F19" s="202"/>
-      <c r="G19" s="203"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="197"/>
-      <c r="J19" s="197"/>
-    </row>
-    <row r="20" spans="1:10" ht="16.8">
-      <c r="A20" s="101" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="197"/>
-      <c r="C20" s="197"/>
-      <c r="D20" s="197"/>
-      <c r="E20" s="201"/>
-      <c r="F20" s="202"/>
-      <c r="G20" s="203"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="197"/>
-      <c r="J20" s="197"/>
-    </row>
-    <row r="21" spans="1:10" ht="16.8">
-      <c r="A21" s="101" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="204"/>
-      <c r="D21" s="205"/>
-      <c r="E21" s="206"/>
-      <c r="F21" s="202"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="207"/>
-      <c r="J21" s="207"/>
-    </row>
-    <row r="22" spans="1:10" ht="16.8">
-      <c r="A22" s="101" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="92"/>
-      <c r="C22" s="204"/>
-      <c r="D22" s="208"/>
-      <c r="E22" s="206"/>
-      <c r="F22" s="202"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="207"/>
-      <c r="J22" s="207"/>
-    </row>
-    <row r="23" spans="1:10" ht="16.8">
-      <c r="A23" s="101" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="92"/>
-      <c r="C23" s="204"/>
-      <c r="D23" s="208"/>
-      <c r="E23" s="206"/>
-      <c r="F23" s="202"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="207"/>
-      <c r="J23" s="207"/>
-    </row>
-    <row r="24" spans="1:10" ht="16.8">
-      <c r="A24" s="101" t="s">
-        <v>121</v>
-      </c>
-      <c r="B24" s="197"/>
-      <c r="C24" s="197"/>
-      <c r="D24" s="209"/>
-      <c r="E24" s="198"/>
-      <c r="F24" s="199"/>
-      <c r="G24" s="200"/>
-      <c r="H24" s="197"/>
-      <c r="I24" s="197"/>
-      <c r="J24" s="197"/>
-    </row>
-    <row r="25" spans="1:10" ht="16.8">
-      <c r="A25" s="101" t="s">
-        <v>272</v>
-      </c>
-      <c r="B25" s="197"/>
-      <c r="C25" s="197"/>
-      <c r="D25" s="209"/>
-      <c r="E25" s="198"/>
-      <c r="F25" s="199"/>
-      <c r="G25" s="203"/>
-      <c r="H25" s="197"/>
-      <c r="I25" s="197"/>
-      <c r="J25" s="197"/>
-    </row>
-    <row r="26" spans="1:10" ht="16.8">
-      <c r="A26" s="101" t="s">
-        <v>273</v>
-      </c>
-      <c r="B26" s="197"/>
-      <c r="C26" s="197"/>
-      <c r="D26" s="209"/>
-      <c r="E26" s="198"/>
-      <c r="F26" s="199"/>
-      <c r="G26" s="203"/>
-      <c r="H26" s="197"/>
-      <c r="I26" s="197"/>
-      <c r="J26" s="197"/>
-    </row>
-    <row r="27" spans="1:10" ht="16.8">
-      <c r="A27" s="101" t="s">
-        <v>274</v>
-      </c>
-      <c r="B27" s="197"/>
-      <c r="C27" s="197"/>
-      <c r="D27" s="209"/>
-      <c r="E27" s="198"/>
-      <c r="F27" s="199"/>
-      <c r="G27" s="203"/>
-      <c r="H27" s="197"/>
-      <c r="I27" s="197"/>
-      <c r="J27" s="197"/>
-    </row>
-    <row r="28" spans="1:10" ht="16.8">
-      <c r="A28" s="101" t="s">
-        <v>275</v>
-      </c>
-      <c r="B28" s="197"/>
-      <c r="C28" s="197"/>
-      <c r="D28" s="209"/>
-      <c r="E28" s="198"/>
-      <c r="F28" s="199"/>
-      <c r="G28" s="203"/>
-      <c r="H28" s="197"/>
-      <c r="I28" s="197"/>
-      <c r="J28" s="197"/>
-    </row>
-    <row r="29" spans="1:10" ht="16.8">
-      <c r="A29" s="101" t="s">
-        <v>276</v>
-      </c>
-      <c r="B29" s="197"/>
-      <c r="C29" s="197"/>
-      <c r="D29" s="209"/>
-      <c r="E29" s="198"/>
-      <c r="F29" s="199"/>
-      <c r="G29" s="203"/>
-      <c r="H29" s="197"/>
-      <c r="I29" s="197"/>
-      <c r="J29" s="197"/>
-    </row>
-    <row r="30" spans="1:10" ht="16.8">
-      <c r="A30" s="101" t="s">
-        <v>122</v>
-      </c>
-      <c r="B30" s="197"/>
-      <c r="C30" s="197"/>
-      <c r="D30" s="209"/>
-      <c r="E30" s="198"/>
-      <c r="F30" s="199"/>
-      <c r="G30" s="203"/>
-      <c r="H30" s="197"/>
-      <c r="I30" s="197"/>
-      <c r="J30" s="197"/>
-    </row>
-    <row r="31" spans="1:10" ht="16.8">
-      <c r="A31" s="101" t="s">
-        <v>123</v>
-      </c>
-      <c r="B31" s="197"/>
-      <c r="C31" s="197"/>
-      <c r="D31" s="209"/>
-      <c r="E31" s="198"/>
-      <c r="F31" s="199"/>
-      <c r="G31" s="203"/>
-      <c r="H31" s="197"/>
-      <c r="I31" s="197"/>
-      <c r="J31" s="197"/>
-    </row>
-    <row r="32" spans="1:10" ht="16.8">
-      <c r="A32" s="101" t="s">
-        <v>124</v>
-      </c>
-      <c r="B32" s="197"/>
-      <c r="C32" s="197"/>
-      <c r="D32" s="209"/>
-      <c r="E32" s="198"/>
-      <c r="F32" s="202"/>
-      <c r="G32" s="203"/>
-      <c r="H32" s="197"/>
-      <c r="I32" s="197"/>
-      <c r="J32" s="197"/>
-    </row>
-    <row r="33" spans="1:10" ht="16.8">
-      <c r="A33" s="101" t="s">
-        <v>277</v>
-      </c>
-      <c r="B33" s="210"/>
-      <c r="C33" s="210"/>
-      <c r="D33" s="210"/>
-      <c r="E33" s="198"/>
-      <c r="F33" s="211"/>
-      <c r="G33" s="212"/>
-      <c r="H33" s="213"/>
-      <c r="I33" s="213"/>
-      <c r="J33" s="213"/>
-    </row>
-    <row r="34" spans="1:10" ht="16.8">
-      <c r="A34" s="101" t="s">
-        <v>278</v>
-      </c>
-      <c r="B34" s="210"/>
-      <c r="C34" s="210"/>
-      <c r="D34" s="210"/>
-      <c r="E34" s="198"/>
-      <c r="F34" s="214"/>
-      <c r="G34" s="209"/>
-      <c r="H34" s="215"/>
-      <c r="I34" s="215"/>
-      <c r="J34" s="215"/>
-    </row>
-    <row r="35" spans="1:10" ht="16.8">
-      <c r="A35" s="101" t="s">
-        <v>279</v>
-      </c>
-      <c r="B35" s="210"/>
-      <c r="C35" s="210"/>
-      <c r="D35" s="210"/>
-      <c r="E35" s="198"/>
-      <c r="F35" s="214"/>
-      <c r="G35" s="209"/>
-      <c r="H35" s="215"/>
-      <c r="I35" s="215"/>
-      <c r="J35" s="215"/>
-    </row>
-    <row r="36" spans="1:10" ht="16.8">
-      <c r="A36" s="101" t="s">
-        <v>125</v>
-      </c>
-      <c r="B36" s="210"/>
-      <c r="C36" s="210"/>
-      <c r="D36" s="210"/>
-      <c r="E36" s="198"/>
-      <c r="F36" s="214"/>
-      <c r="G36" s="197"/>
-      <c r="H36" s="215"/>
-      <c r="I36" s="215"/>
-      <c r="J36" s="215"/>
-    </row>
-    <row r="37" spans="1:10" ht="16.8">
-      <c r="A37" s="101" t="s">
-        <v>126</v>
-      </c>
-      <c r="B37" s="210"/>
-      <c r="C37" s="210"/>
-      <c r="D37" s="210"/>
-      <c r="E37" s="216"/>
-      <c r="F37" s="199"/>
-      <c r="G37" s="197"/>
-      <c r="H37" s="215"/>
-      <c r="I37" s="215"/>
-      <c r="J37" s="215"/>
-    </row>
-    <row r="38" spans="1:10" ht="16.8">
-      <c r="A38" s="101" t="s">
-        <v>280</v>
-      </c>
-      <c r="B38" s="210"/>
-      <c r="C38" s="210"/>
-      <c r="D38" s="210"/>
-      <c r="E38" s="216"/>
-      <c r="F38" s="199"/>
-      <c r="G38" s="197"/>
-      <c r="H38" s="215"/>
-      <c r="I38" s="215"/>
-      <c r="J38" s="215"/>
-    </row>
-    <row r="39" spans="1:10" ht="16.8">
-      <c r="A39" s="101" t="s">
-        <v>281</v>
-      </c>
-      <c r="B39" s="210"/>
-      <c r="C39" s="210"/>
-      <c r="D39" s="210"/>
-      <c r="E39" s="216"/>
-      <c r="F39" s="197"/>
-      <c r="G39" s="197"/>
-      <c r="H39" s="215"/>
-      <c r="I39" s="215"/>
-      <c r="J39" s="215"/>
-    </row>
-    <row r="40" spans="1:10" ht="16.8">
-      <c r="A40" s="101" t="s">
-        <v>282</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B1:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F39">
-      <formula1>$I$4:$I$7</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8329,15 +7743,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.6">
-      <c r="A1" s="252" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
+      <c r="A1" s="221" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="221"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="221"/>
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="102"/>
@@ -8350,63 +7764,63 @@
     </row>
     <row r="3" spans="1:7" ht="40.5" customHeight="1">
       <c r="A3" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="253" t="s">
-        <v>316</v>
-      </c>
-      <c r="C3" s="254"/>
-      <c r="D3" s="255" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="255"/>
-      <c r="F3" s="254" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="254"/>
+        <v>124</v>
+      </c>
+      <c r="B3" s="222" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="216"/>
+      <c r="D3" s="217" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="217"/>
+      <c r="F3" s="216" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="216"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="105" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" s="254" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="254"/>
-      <c r="D4" s="255" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="255"/>
-      <c r="F4" s="254" t="s">
-        <v>317</v>
-      </c>
-      <c r="G4" s="254"/>
+        <v>126</v>
+      </c>
+      <c r="B4" s="216" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="216"/>
+      <c r="D4" s="217" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="217"/>
+      <c r="F4" s="216" t="s">
+        <v>289</v>
+      </c>
+      <c r="G4" s="216"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="106" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="254"/>
-      <c r="C5" s="254"/>
-      <c r="D5" s="255" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="255"/>
-      <c r="F5" s="256">
+        <v>128</v>
+      </c>
+      <c r="B5" s="216"/>
+      <c r="C5" s="216"/>
+      <c r="D5" s="217" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="217"/>
+      <c r="F5" s="218">
         <v>44713</v>
       </c>
-      <c r="G5" s="257"/>
+      <c r="G5" s="219"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="106" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="258"/>
-      <c r="C6" s="258"/>
-      <c r="D6" s="258"/>
-      <c r="E6" s="258"/>
-      <c r="F6" s="258"/>
-      <c r="G6" s="258"/>
+        <v>130</v>
+      </c>
+      <c r="B6" s="220"/>
+      <c r="C6" s="220"/>
+      <c r="D6" s="220"/>
+      <c r="E6" s="220"/>
+      <c r="F6" s="220"/>
+      <c r="G6" s="220"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="107"/>
@@ -8437,10 +7851,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="110" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B10" s="111" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C10" s="112" t="s">
         <v>4</v>
@@ -8455,7 +7869,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="114" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -8463,7 +7877,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="116" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C11" s="117">
         <f>'ĐĂNG KÝ'!A7</f>
@@ -8491,7 +7905,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="116" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C12" s="117">
         <f>'GIỎ HÀNG'!A7</f>
@@ -8519,7 +7933,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="116" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C13" s="117">
         <f>'TÌM KIẾM'!A7</f>
@@ -8547,7 +7961,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="116" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C14" s="117">
         <f>'ĐĂNG NHẬP'!A7</f>
@@ -8575,7 +7989,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="119" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C15" s="117">
         <f>'ĐẶT HÀNG'!A7</f>
@@ -8599,86 +8013,114 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="120"/>
-      <c r="B16" s="121" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="122">
-        <f>SUM(C11:C15)</f>
-        <v>56</v>
-      </c>
-      <c r="D16" s="122">
-        <f>SUM(D11:D15)</f>
+      <c r="A16" s="118">
+        <v>6</v>
+      </c>
+      <c r="B16" s="119" t="s">
+        <v>331</v>
+      </c>
+      <c r="C16" s="223">
+        <f>'HIỆU NĂNG'!A7</f>
         <v>7</v>
       </c>
-      <c r="E16" s="122">
-        <f>SUM(E11:E15)</f>
+      <c r="D16" s="223">
+        <f>'HIỆU NĂNG'!B7</f>
+        <v>9</v>
+      </c>
+      <c r="E16" s="223">
+        <f>'HIỆU NĂNG'!C7</f>
         <v>0</v>
       </c>
-      <c r="F16" s="122">
-        <f>SUM(F11:F15)</f>
+      <c r="F16" s="223">
+        <f>'HIỆU NĂNG'!D7</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="223">
+        <f>'HIỆU NĂNG'!E7</f>
         <v>16</v>
       </c>
-      <c r="G16" s="122">
-        <f>SUM(G11:G15)</f>
-        <v>79</v>
-      </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="123"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
+      <c r="A17" s="120"/>
+      <c r="B17" s="121" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="122">
+        <f>SUM(C11:C16)</f>
+        <v>63</v>
+      </c>
+      <c r="D17" s="122">
+        <f>SUM(D11:D16)</f>
+        <v>16</v>
+      </c>
+      <c r="E17" s="122">
+        <f>SUM(E11:E16)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="122">
+        <f>SUM(F11:F16)</f>
+        <v>16</v>
+      </c>
+      <c r="G17" s="122">
+        <f>SUM(G11:G16)</f>
+        <v>95</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="109"/>
-      <c r="B18" s="126" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="109"/>
-      <c r="D18" s="127">
-        <f>(C16+D16+E16+F16)*100/(G16)</f>
-        <v>100</v>
-      </c>
-      <c r="E18" s="109" t="s">
-        <v>158</v>
-      </c>
-      <c r="F18" s="109"/>
-      <c r="G18" s="128"/>
+      <c r="A18" s="123"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="109"/>
       <c r="B19" s="126" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C19" s="109"/>
       <c r="D19" s="127">
-        <f>C16*100/(G16)</f>
-        <v>70.886075949367083</v>
+        <f>(C17+D17+E17+F17)*100/(G17)</f>
+        <v>100</v>
       </c>
       <c r="E19" s="109" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="F19" s="109"/>
       <c r="G19" s="128"/>
     </row>
-    <row r="20" spans="1:7" ht="20.25" customHeight="1">
+    <row r="20" spans="1:7">
+      <c r="A20" s="109"/>
       <c r="B20" s="126" t="s">
-        <v>160</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C20" s="109"/>
       <c r="D20" s="127">
-        <f>D16*100/(G16)</f>
-        <v>8.8607594936708853</v>
+        <f>C17*100/(G17)</f>
+        <v>66.315789473684205</v>
       </c>
       <c r="E20" s="109" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="E22" s="109"/>
+        <v>141</v>
+      </c>
+      <c r="F20" s="109"/>
+      <c r="G20" s="128"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.25" customHeight="1">
+      <c r="B21" s="126" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="127">
+        <f>D17*100/(G17)</f>
+        <v>16.842105263157894</v>
+      </c>
+      <c r="E21" s="109" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="E23" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="11">
